--- a/nba2k26_editor/Offsets/ImportStadiums.xlsx
+++ b/nba2k26_editor/Offsets/ImportStadiums.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,167 +436,147 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ALT_FLOOR_FILE#1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ALT_FLOOR_FILE#2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ALT_FLOOR_FILE#3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ALT_FLOOR_JERSEY#1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ALT_FLOOR_JERSEY#2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ALT_FLOOR_JERSEY#3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Arena Id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Arena Name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ARENA_CAPACITY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ARENA_FILE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Backboard Shakes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BASKETBALL_TYPE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>City Floor Id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>City Name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>City Short Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Crowd Type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CROWD_LOUDNESS</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DornasID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Floor Id</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - LED ID</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#3</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ARENA_CAPACITY</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ARENA_FILE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - BASKETBALL_TYPE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - CITY_ABB</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CITY_NAME</t>
+          <t>HOME_BASKET</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CROWD_LOUDNESS</t>
+          <t>LED Id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - DORNAS_ID</t>
+          <t>LOCATION_TYPE</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - FLOOR_FILE</t>
+          <t>MUSIC_PROBABILITY</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - HOME_BASKET</t>
+          <t>Nickname</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - LOCATION_TYPE</t>
+          <t>SOUND_ID</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - MUSIC_PROBABILITY</t>
+          <t>STATE</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - NAME</t>
+          <t>State Short Name</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - NICKNAME</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Stadium Vitals - SOUND_ID</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - STATE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - TYPE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - UNIQUEID</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>State Short Name</t>
+          <t>UNIQUEID</t>
         </is>
       </c>
     </row>
